--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N2">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q2">
-        <v>24.70401042497578</v>
+        <v>0.06443474424444445</v>
       </c>
       <c r="R2">
-        <v>222.336093824782</v>
+        <v>0.5799126982</v>
       </c>
       <c r="S2">
-        <v>0.04930781406094765</v>
+        <v>0.0002129679518219923</v>
       </c>
       <c r="T2">
-        <v>0.04930781406094763</v>
+        <v>0.0002129679518219923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q3">
-        <v>52.38630984109756</v>
+        <v>1.920345781322222</v>
       </c>
       <c r="R3">
-        <v>471.4767885698781</v>
+        <v>17.2831120319</v>
       </c>
       <c r="S3">
-        <v>0.1045601252812199</v>
+        <v>0.006347074278539699</v>
       </c>
       <c r="T3">
-        <v>0.1045601252812199</v>
+        <v>0.006347074278539699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P4">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q4">
-        <v>71.61673837352068</v>
+        <v>2.625283243366667</v>
       </c>
       <c r="R4">
-        <v>644.5506453616862</v>
+        <v>23.6275491903</v>
       </c>
       <c r="S4">
-        <v>0.1429429780276882</v>
+        <v>0.008677014269993037</v>
       </c>
       <c r="T4">
-        <v>0.1429429780276881</v>
+        <v>0.008677014269993033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N5">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q5">
-        <v>38.89944756163043</v>
+        <v>2.767798389909777</v>
       </c>
       <c r="R5">
-        <v>350.0950280546739</v>
+        <v>24.910185509188</v>
       </c>
       <c r="S5">
-        <v>0.07764110743344367</v>
+        <v>0.00914805142888599</v>
       </c>
       <c r="T5">
-        <v>0.07764110743344367</v>
+        <v>0.00914805142888599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q6">
         <v>82.48857078488288</v>
@@ -818,10 +818,10 @@
         <v>742.397137063946</v>
       </c>
       <c r="S6">
-        <v>0.1646425434755422</v>
+        <v>0.2726389648127547</v>
       </c>
       <c r="T6">
-        <v>0.1646425434755422</v>
+        <v>0.2726389648127547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P7">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q7">
         <v>112.7692026910447</v>
@@ -880,10 +880,10 @@
         <v>1014.922824219402</v>
       </c>
       <c r="S7">
-        <v>0.2250809800691217</v>
+        <v>0.3727216800085547</v>
       </c>
       <c r="T7">
-        <v>0.2250809800691217</v>
+        <v>0.3727216800085547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N8">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q8">
-        <v>19.62801693313922</v>
+        <v>1.396585223442889</v>
       </c>
       <c r="R8">
-        <v>176.652152398253</v>
+        <v>12.569267010986</v>
       </c>
       <c r="S8">
-        <v>0.03917641681149467</v>
+        <v>0.004615955228333754</v>
       </c>
       <c r="T8">
-        <v>0.03917641681149466</v>
+        <v>0.004615955228333753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q9">
         <v>41.62236652823745</v>
@@ -1004,10 +1004,10 @@
         <v>374.601298754137</v>
       </c>
       <c r="S9">
-        <v>0.08307590040020618</v>
+        <v>0.1375691058208437</v>
       </c>
       <c r="T9">
-        <v>0.08307590040020618</v>
+        <v>0.1375691058208437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P10">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q10">
         <v>56.90147183837434</v>
@@ -1066,10 +1066,10 @@
         <v>512.1132465453691</v>
       </c>
       <c r="S10">
-        <v>0.113572134440336</v>
+        <v>0.1880691862002725</v>
       </c>
       <c r="T10">
-        <v>0.113572134440336</v>
+        <v>0.1880691862002725</v>
       </c>
     </row>
   </sheetData>
